--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -549,10 +549,10 @@
         <v>0.109806</v>
       </c>
       <c r="I2">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J2">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.06401876470200001</v>
+        <v>0.3357409222960001</v>
       </c>
       <c r="R2">
-        <v>0.576168882318</v>
+        <v>3.021668300664</v>
       </c>
       <c r="S2">
-        <v>8.339870043596587E-06</v>
+        <v>9.745165952460915E-05</v>
       </c>
       <c r="T2">
-        <v>8.339870043596587E-06</v>
+        <v>9.745165952460913E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.109806</v>
       </c>
       <c r="I3">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J3">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
         <v>5.235387323106668</v>
@@ -641,10 +641,10 @@
         <v>47.11848590796001</v>
       </c>
       <c r="S3">
-        <v>0.00068202581080479</v>
+        <v>0.001519615718577909</v>
       </c>
       <c r="T3">
-        <v>0.00068202581080479</v>
+        <v>0.001519615718577908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.109806</v>
       </c>
       <c r="I4">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J4">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>4.860921728824001</v>
+        <v>6.194402047219334</v>
       </c>
       <c r="R4">
-        <v>43.748295559416</v>
+        <v>55.749618424974</v>
       </c>
       <c r="S4">
-        <v>0.0006332433263777195</v>
+        <v>0.001797977902532712</v>
       </c>
       <c r="T4">
-        <v>0.0006332433263777194</v>
+        <v>0.001797977902532712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.109806</v>
       </c>
       <c r="I5">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J5">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>0.8419453622293334</v>
+        <v>0.5911338540313334</v>
       </c>
       <c r="R5">
-        <v>7.577508260064</v>
+        <v>5.320204686282</v>
       </c>
       <c r="S5">
-        <v>0.0001096821367529781</v>
+        <v>0.0001715816311058541</v>
       </c>
       <c r="T5">
-        <v>0.0001096821367529781</v>
+        <v>0.0001715816311058541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.109806</v>
       </c>
       <c r="I6">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J6">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>1.961372401963333</v>
+        <v>2.003763423086</v>
       </c>
       <c r="R6">
-        <v>17.65235161767</v>
+        <v>18.033870807774</v>
       </c>
       <c r="S6">
-        <v>0.000255512442572327</v>
+        <v>0.0005816093836255262</v>
       </c>
       <c r="T6">
-        <v>0.0002555124425723269</v>
+        <v>0.0005816093836255262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.109806</v>
       </c>
       <c r="I7">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="J7">
-        <v>0.002288203820224691</v>
+        <v>0.006740204954872558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>4.601134348768001</v>
+        <v>8.860958695535334</v>
       </c>
       <c r="R7">
-        <v>41.41020913891201</v>
+        <v>79.74862825981801</v>
       </c>
       <c r="S7">
-        <v>0.0005994002336732802</v>
+        <v>0.002571968659505949</v>
       </c>
       <c r="T7">
-        <v>0.0005994002336732801</v>
+        <v>0.002571968659505949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H8">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I8">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J8">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>13.053308703114</v>
+        <v>11.69880966864133</v>
       </c>
       <c r="R8">
-        <v>117.479778328026</v>
+        <v>105.289287017772</v>
       </c>
       <c r="S8">
-        <v>0.001700484205367963</v>
+        <v>0.003395679051797325</v>
       </c>
       <c r="T8">
-        <v>0.001700484205367963</v>
+        <v>0.003395679051797325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H9">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I9">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J9">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
-        <v>1067.485872727969</v>
+        <v>182.4257806161756</v>
       </c>
       <c r="R9">
-        <v>9607.372854551721</v>
+        <v>1641.83202554558</v>
       </c>
       <c r="S9">
-        <v>0.1390638118896477</v>
+        <v>0.0529506350895325</v>
       </c>
       <c r="T9">
-        <v>0.1390638118896477</v>
+        <v>0.0529506350895325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H10">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I10">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J10">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>991.1330248775013</v>
+        <v>215.8424122561141</v>
       </c>
       <c r="R10">
-        <v>8920.197223897512</v>
+        <v>1942.581710305027</v>
       </c>
       <c r="S10">
-        <v>0.129117152789062</v>
+        <v>0.06265009676600794</v>
       </c>
       <c r="T10">
-        <v>0.129117152789062</v>
+        <v>0.06265009676600795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H11">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I11">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J11">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>171.6711151096498</v>
+        <v>20.59791341404011</v>
       </c>
       <c r="R11">
-        <v>1545.040035986848</v>
+        <v>185.381220726361</v>
       </c>
       <c r="S11">
-        <v>0.02236398651111525</v>
+        <v>0.005978719636603354</v>
       </c>
       <c r="T11">
-        <v>0.02236398651111525</v>
+        <v>0.005978719636603354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H12">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I12">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J12">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>399.9202353211878</v>
+        <v>69.82064249826966</v>
       </c>
       <c r="R12">
-        <v>3599.28211789069</v>
+        <v>628.3857824844271</v>
       </c>
       <c r="S12">
-        <v>0.05209851839392137</v>
+        <v>0.0202660355907764</v>
       </c>
       <c r="T12">
-        <v>0.05209851839392137</v>
+        <v>0.0202660355907764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.463080666666666</v>
+        <v>1.275387666666667</v>
       </c>
       <c r="H13">
-        <v>22.389242</v>
+        <v>3.826163</v>
       </c>
       <c r="I13">
-        <v>0.4665605620488417</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="J13">
-        <v>0.4665605620488416</v>
+        <v>0.2348607800188519</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>938.1628545715095</v>
+        <v>308.7579212919654</v>
       </c>
       <c r="R13">
-        <v>8443.465691143585</v>
+        <v>2778.821291627689</v>
       </c>
       <c r="S13">
-        <v>0.1222166082597273</v>
+        <v>0.08961961388413435</v>
       </c>
       <c r="T13">
-        <v>0.1222166082597273</v>
+        <v>0.08961961388413436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H14">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I14">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J14">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>4.622230487091</v>
+        <v>1.593651834441334</v>
       </c>
       <c r="R14">
-        <v>41.600074383819</v>
+        <v>14.342866509972</v>
       </c>
       <c r="S14">
-        <v>0.0006021484755810163</v>
+        <v>0.0004625710053712921</v>
       </c>
       <c r="T14">
-        <v>0.0006021484755810166</v>
+        <v>0.0004625710053712921</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H15">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I15">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J15">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>378.0011533999089</v>
+        <v>24.85066328650889</v>
       </c>
       <c r="R15">
-        <v>3402.01038059918</v>
+        <v>223.65596957858</v>
       </c>
       <c r="S15">
-        <v>0.04924306975242795</v>
+        <v>0.007213116473846122</v>
       </c>
       <c r="T15">
-        <v>0.04924306975242795</v>
+        <v>0.007213116473846123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H16">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I16">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J16">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>350.9642948426253</v>
+        <v>29.40279105183078</v>
       </c>
       <c r="R16">
-        <v>3158.678653583628</v>
+        <v>264.625119466477</v>
       </c>
       <c r="S16">
-        <v>0.04572091671176168</v>
+        <v>0.008534410291903742</v>
       </c>
       <c r="T16">
-        <v>0.04572091671176168</v>
+        <v>0.008534410291903745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H17">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I17">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J17">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>60.78945040374577</v>
+        <v>2.805918159856778</v>
       </c>
       <c r="R17">
-        <v>547.1050536337119</v>
+        <v>25.253263438711</v>
       </c>
       <c r="S17">
-        <v>0.007919179927148162</v>
+        <v>0.0008144416215286552</v>
       </c>
       <c r="T17">
-        <v>0.007919179927148164</v>
+        <v>0.0008144416215286553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H18">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I18">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J18">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>141.6134059301928</v>
+        <v>9.511206537319667</v>
       </c>
       <c r="R18">
-        <v>1274.520653371735</v>
+        <v>85.60085883587702</v>
       </c>
       <c r="S18">
-        <v>0.01844830039108832</v>
+        <v>0.002760708628559563</v>
       </c>
       <c r="T18">
-        <v>0.01844830039108832</v>
+        <v>0.002760708628559563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.642707666666666</v>
+        <v>0.1737376666666667</v>
       </c>
       <c r="H19">
-        <v>7.928122999999999</v>
+        <v>0.521213</v>
       </c>
       <c r="I19">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487578</v>
       </c>
       <c r="J19">
-        <v>0.1652110206711039</v>
+        <v>0.03199353810487579</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>332.2073389118774</v>
+        <v>42.06005923698211</v>
       </c>
       <c r="R19">
-        <v>2989.866050206896</v>
+        <v>378.5405331328391</v>
       </c>
       <c r="S19">
-        <v>0.04327740541309679</v>
+        <v>0.01220829008366641</v>
       </c>
       <c r="T19">
-        <v>0.04327740541309679</v>
+        <v>0.01220829008366641</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H20">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I20">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J20">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>0.9082775201639999</v>
+        <v>1.258984123661333</v>
       </c>
       <c r="R20">
-        <v>8.174497681476</v>
+        <v>11.330857112952</v>
       </c>
       <c r="S20">
-        <v>0.0001183233777931877</v>
+        <v>0.0003654308546211865</v>
       </c>
       <c r="T20">
-        <v>0.0001183233777931877</v>
+        <v>0.0003654308546211865</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H21">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I21">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J21">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>74.27798141785777</v>
+        <v>19.63201112314222</v>
       </c>
       <c r="R21">
-        <v>668.5018327607199</v>
+        <v>176.68810010828</v>
       </c>
       <c r="S21">
-        <v>0.009676361532578327</v>
+        <v>0.005698358277782657</v>
       </c>
       <c r="T21">
-        <v>0.009676361532578328</v>
+        <v>0.005698358277782657</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H22">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I22">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J22">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>68.96518472543465</v>
+        <v>23.22818969964245</v>
       </c>
       <c r="R22">
-        <v>620.6866625289119</v>
+        <v>209.053707296782</v>
       </c>
       <c r="S22">
-        <v>0.008984251427219259</v>
+        <v>0.006742179709588405</v>
       </c>
       <c r="T22">
-        <v>0.008984251427219259</v>
+        <v>0.006742179709588405</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H23">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I23">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J23">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>11.94524838582755</v>
+        <v>2.216673892758445</v>
       </c>
       <c r="R23">
-        <v>107.507235472448</v>
+        <v>19.950065034826</v>
       </c>
       <c r="S23">
-        <v>0.00155613466832751</v>
+        <v>0.0006434084591086485</v>
       </c>
       <c r="T23">
-        <v>0.00155613466832751</v>
+        <v>0.0006434084591086485</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H24">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I24">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J24">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>27.82731703221555</v>
+        <v>7.513848237464667</v>
       </c>
       <c r="R24">
-        <v>250.44585328994</v>
+        <v>67.62463413718201</v>
       </c>
       <c r="S24">
-        <v>0.00362512786354013</v>
+        <v>0.002180958386453193</v>
       </c>
       <c r="T24">
-        <v>0.003625127863540131</v>
+        <v>0.002180958386453194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.5192973333333333</v>
+        <v>0.1372526666666667</v>
       </c>
       <c r="H25">
-        <v>1.557892</v>
+        <v>0.411758</v>
       </c>
       <c r="I25">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="J25">
-        <v>0.03246429544740255</v>
+        <v>0.02527487852948304</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>65.27940543204268</v>
+        <v>33.22742500916378</v>
       </c>
       <c r="R25">
-        <v>587.514648888384</v>
+        <v>299.046825082474</v>
       </c>
       <c r="S25">
-        <v>0.008504096577944134</v>
+        <v>0.009644542841928949</v>
       </c>
       <c r="T25">
-        <v>0.008504096577944134</v>
+        <v>0.009644542841928951</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H26">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I26">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J26">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>9.329901532514999</v>
+        <v>34.92449195982934</v>
       </c>
       <c r="R26">
-        <v>83.969113792635</v>
+        <v>314.320427638464</v>
       </c>
       <c r="S26">
-        <v>0.001215427486970814</v>
+        <v>0.01013713096474623</v>
       </c>
       <c r="T26">
-        <v>0.001215427486970814</v>
+        <v>0.01013713096474623</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H27">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I27">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J27">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>762.9895459016334</v>
+        <v>544.596235758329</v>
       </c>
       <c r="R27">
-        <v>6866.905913114701</v>
+        <v>4901.366121824961</v>
       </c>
       <c r="S27">
-        <v>0.09939638303023367</v>
+        <v>0.1580736914123165</v>
       </c>
       <c r="T27">
-        <v>0.09939638303023367</v>
+        <v>0.1580736914123165</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H28">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I28">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J28">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>708.4160604831799</v>
+        <v>644.3550074701139</v>
       </c>
       <c r="R28">
-        <v>6375.74454434862</v>
+        <v>5799.195067231025</v>
       </c>
       <c r="S28">
-        <v>0.09228697099558071</v>
+        <v>0.1870295237516318</v>
       </c>
       <c r="T28">
-        <v>0.0922869709955807</v>
+        <v>0.1870295237516319</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H29">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I29">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J29">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>122.7025757513866</v>
+        <v>61.49101334182578</v>
       </c>
       <c r="R29">
-        <v>1104.32318176248</v>
+        <v>553.419120076432</v>
       </c>
       <c r="S29">
-        <v>0.01598474354424963</v>
+        <v>0.01784828985108854</v>
       </c>
       <c r="T29">
-        <v>0.01598474354424963</v>
+        <v>0.01784828985108854</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H30">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I30">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J30">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>285.8444936276416</v>
+        <v>208.4357756582027</v>
       </c>
       <c r="R30">
-        <v>2572.600442648775</v>
+        <v>1875.921980923824</v>
       </c>
       <c r="S30">
-        <v>0.0372376121380819</v>
+        <v>0.0605002574702017</v>
       </c>
       <c r="T30">
-        <v>0.0372376121380819</v>
+        <v>0.06050025747020171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.334264999999999</v>
+        <v>3.807418666666667</v>
       </c>
       <c r="H31">
-        <v>16.002795</v>
+        <v>11.422256</v>
       </c>
       <c r="I31">
-        <v>0.3334759180124273</v>
+        <v>0.7011305983919167</v>
       </c>
       <c r="J31">
-        <v>0.3334759180124272</v>
+        <v>0.7011305983919168</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>670.55543185976</v>
+        <v>921.7359581974632</v>
       </c>
       <c r="R31">
-        <v>6034.998886737841</v>
+        <v>8295.623623777168</v>
       </c>
       <c r="S31">
-        <v>0.08735478081731052</v>
+        <v>0.267541704941932</v>
       </c>
       <c r="T31">
-        <v>0.0873547808173105</v>
+        <v>0.267541704941932</v>
       </c>
     </row>
   </sheetData>
